--- a/AllSamples/GroupsforPCO.xlsx
+++ b/AllSamples/GroupsforPCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfarr\Documents\Dogwood research\Full Diversity study\All samples 11-19-21\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52830DE1-A0D8-48BC-9F67-EE84A0FD8A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F1642-57B7-4264-8550-8E617D0987BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F7BECF0C-C98C-4D08-B267-C39C2D295299}"/>
+    <workbookView xWindow="-25725" yWindow="1800" windowWidth="24450" windowHeight="12975" activeTab="1" xr2:uid="{F7BECF0C-C98C-4D08-B267-C39C2D295299}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE82BEE-FB50-41A9-A2E9-B1FA140B31B3}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C314"/>
     </sheetView>
   </sheetViews>
@@ -3215,7 +3215,7 @@
         <v>112</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>-1.0463007336114299E-2</v>
@@ -5780,7 +5780,7 @@
   <dimension ref="A1:LA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="EB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EC1">
         <v>2</v>
